--- a/requisitos_urep.xlsx
+++ b/requisitos_urep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.ramirez\OneDrive - Dirección Nacional de Medicamentos\Escritorio\Actividades\PROYECTOS\PROYECTO Sistema Evaluación UREP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665A4F0C-E4C5-4638-AB0B-729D2AF12CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444C55E4-B7CC-4F63-8DEC-030D085E1EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,10 +983,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C333"/>
+  <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B338" sqref="B338"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3629,7 +3629,7 @@
         <v>152</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3661,8 +3661,14 @@
         <v>152</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="17"/>
+    </row>
+    <row r="336" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C333" xr:uid="{F58F8C4B-36E7-4F40-B528-6BBD78CD7C5C}"/>
@@ -3678,8 +3684,8 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A31" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
